--- a/medicine/Sexualité et sexologie/Dark_romance/Dark_romance.xlsx
+++ b/medicine/Sexualité et sexologie/Dark_romance/Dark_romance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dark romance (« romance sombre ») est un sous-genre littéraire apparu dans les années 2010 et devenu très populaire dans les années 2020.
 Sous-genre de la littérature sentimentale, elle entre dans la catégorie des romances « interdites », mettant en scène des relations parfois condamnées par la morale ou par la loi. Dans ce genre littéraire à la frontière entre amour, désir, sexualité et violence, l’auteur joue avec les limites de la morale et le franchissement de l’interdit. Ce genre devenu très populaire en France auprès d'un public féminin souvent très jeune, notamment via la saga Captive de Sarah Rivens, soulève de nombreuses questions et polémiques, notamment à partir de 2023. Il est en effet parfois accusé de banaliser les violences faites aux femmes, les relations toxiques, la culture du viol et d'érotiser la violence. Le genre s´étend aussi aux romances LGBT dans une version moins contrastée, où un personnage attire l´autre dans sa noirceur.
@@ -514,24 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Issu de la romance, le succès de la romance érotique et SM de Cinquante Nuances de Grey semble un élément déclencheur pour la naissance du sous-genre[1]. Encore plus tôt, Histoire d'O est cité comme une des influences du genre[2]. 
-Aux États-Unis
-Née en 2013 aux États-Unis d’abord par le biais de l’auto-édition avec les séries Monsters in the Dark de  Pepper Winters (en)ou The Artists Trilogy de Karina Halle, le succès de ce sous-genre lui a permis d’être rapidement repris par plusieurs maisons d’éditions américaines importantes, telles que Random House et Grand Central.[réf. nécessaire]
-En France
-Si quelques titres sont parus en France, tels que Captive in the Dark, le diptyque de C.J. Roberts publié en 2015 chez Pygmalion, il faut attendre 2017 pour que les premiers titres se revendiquant ouvertement de ce genre paraissent, sous l’impulsion de la collection &amp;H[3] qui publie Dark Romance, de Penelope Douglas. Il n'est à l'époque qu'un sous genre parmi de nombreux sous-genres émergents. Laurence Houot l'évoque ainsi sur France Info, le 6 avril 2017 : « Young adult, Dark romance, New adult : littérature ou marketing ? Enquête au salon Livre Paris »[4] 
-En France, nous avons peu d’auteurs de dark romance célèbres, sans compter Sarah Rivens autrice de la trilogie Captive, très peu d’auteurs français sont mis en avant malgré le fait qu’ils sont présents, comme Justine Pottier autrice des livres nous interdire d’aimer. La dark romance a été rendue célèbre en France plus par les traductions des romans anglais et américains que par des romans français. Les autrices les plus connus en France sont notamment Penelope Douglas ou encore L. J. Shen.
-Explosion via les réseaux sociaux, l'autoédition puis dans l'édition
-Les différentes plateformes
-À partir de la fin des années 2010, le genre devient très populaire grâce au vecteur des réseaux sociaux, et notamment sur wattpad, la communauté Booktok[5] sur TikTok[6],[7],[8] et Bookstagram sur Instagram [9].
-L'auto-édition et l'édition
-De nombreux auteurs et autrices, lorsque leur publication numérique rencontre du succès, passent par l'auto-édition. Puis, revendent parfois leurs droits à des maisons d'éditions[10].
-Le succès commercial de ce sous-genre engendre indirectement une hausse des lectures en anglais dans le texte[1].
-Le phénomène Captive de Sarah Rivens
-L'écrivaine algérienne Sarah Rivens, connue sous le pseudonyme de theblurredgirl sur les réseaux sociaux, et en particulier sur Wattpad, connaît un énorme succès avec sa trilogie saga Captive, issue du genre de la dark romance. Elle devient l'Algérienne la plus lue de l’histoire et demeure plusieurs mois en tête des ventes de livres en France.
-Entre fin 2020 et début 2021, en pleine pandémie de Covid-19, un buzz important se crée sur les réseaux sociaux, en particulier sur TikTok avec le hashtag #captivewattpad[11]. La saga attire rapidement plus de 9 millions de lecteurs sur Wattpad[12]. La maison d'édition HLAB (Hachette Livre) remarque ce succès et signe un contrat d'édition avec Sarah Rivens pour produire les tomes suivants.
-Traduite en dix langues, la série connaît un grand succès commercial, avec une forte croissance des ventes[13]. La sortie en version papier du premier tome est prévue pour fin août 2022, avec un tirage important de 10 000 exemplaires. Dès la première journée de vente, le roman est en rupture de stock[14]. En avril 2023, la trilogie Captive s'est déjà vendue à plus de 350 000 exemplaires en version papier et à 50 000 exemplaires en version numérique. Les ventes continuent à un rythme de plus de 5 000 exemplaires par semaine[15]. Fin mai 2023, elle est en tête des ventes de livres depuis trente-sept semaines, devant Louis-Ferdinand Céline et Stephen King. Plus d'un demi-million d'exemplaires ont été imprimés et sont disponibles en magasin[13]. En revanche, en Algérie, le grossiste chargé d'importer la trilogie n'a toujours pas été homologué par les autorités[11].
-Cette histoire d'amour violente passionne en particulier de jeunes lectrices utilisatrices des réseaux sociaux[13].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu de la romance, le succès de la romance érotique et SM de Cinquante Nuances de Grey semble un élément déclencheur pour la naissance du sous-genre. Encore plus tôt, Histoire d'O est cité comme une des influences du genre. 
 </t>
         </is>
       </c>
@@ -557,17 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification et thématiques</t>
+          <t>Histoire du sous-genre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-genre de la littérature sentimentale, la dark romance entre dans la catégorie des romances « interdites »[16] mettant en scène des relations parfois condamnées par la morale ou par la loi.
-Ce mouvement connaît tout un spectre d'œuvres pouvant se différencier par leurs contenus légers aux contenus les plus gores. Il existe l'exemple de la série de livres Twisted  de Ana Huang qui prend un aspect plus comique. Au contraire d'autres œuvres, tel Hunting Adeline de H. D. Carlton , sont jugés plus sombres en parlant de groupes mafieux, de torture et de meurtres. Le genre n'est pas à confondre avec le romantisme noir[17]. Ce genre connaît de nombreux détracteurs au sein du monde de la romance (des autrices aux lectrices) et beaucoup considèrent qu'il usurpe le terme romance[18]. En effet, plusieurs romans de dark romance sont dénués notamment de fin heureuse, qui est pourtant un élément fondamental du genre[19].
-Dans le prolongement de la romance New Adult, la dark romance met en scène des adultes de tous âges, mais principalement des jeunes adultes, effectuant leurs études ou débutant dans la vie active. Les critères communs retrouvés dans les récits de Dark romance sont, le personnage du héros masculin souvent toxique et incarnant l'archétype du mâle alpha, ainsi que le trope enemies to lovers aussi populaire dans les autres types de romance.
-Les thématiques traitées sont toutefois différentes, portant sur des aspects plus sombres, notamment la vengeance, le pardon, et les traumatismes psychologiques issus d'enfances difficiles, ce qui rapproche ce genre du drame psychologique[20],[21]. Dans ce genre littéraire à la frontière entre amour, désir et violence[22], l'auteur joue avec les limites de la morale et le franchissement de l'interdit. Le récit se déroule bien souvent sous forme de huis clos où se déroulent l’intrigue et la naissance de sentiments entre les deux protagonistes.
-Dans la Dark Romantasy, dont les thèmes sont analogues à la Dark Romance contemporaine tout en leur offrant la liberté d´une société parfois dépourvue de la même morale que le monde contemporain, le genre fantasy se mêle à la Dark Romance. Les univers varient, allant du monde vampire aux univers oniriques, offrant une liberté scénaristique totale.
-Les auteurs de Dark romance avertissent souvent leur lecteurs en début de livre par des trigger warning, afin de les prévenir sur les sujets lourds et polémiques que pourrait comporter leur fiction.
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 2013 aux États-Unis d’abord par le biais de l’auto-édition avec les séries Monsters in the Dark de  Pepper Winters (en)ou The Artists Trilogy de Karina Halle, le succès de ce sous-genre lui a permis d’être rapidement repris par plusieurs maisons d’éditions américaines importantes, telles que Random House et Grand Central.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -593,20 +599,299 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire du sous-genre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si quelques titres sont parus en France, tels que Captive in the Dark, le diptyque de C.J. Roberts publié en 2015 chez Pygmalion, il faut attendre 2017 pour que les premiers titres se revendiquant ouvertement de ce genre paraissent, sous l’impulsion de la collection &amp;H qui publie Dark Romance, de Penelope Douglas. Il n'est à l'époque qu'un sous genre parmi de nombreux sous-genres émergents. Laurence Houot l'évoque ainsi sur France Info, le 6 avril 2017 : « Young adult, Dark romance, New adult : littérature ou marketing ? Enquête au salon Livre Paris » 
+En France, nous avons peu d’auteurs de dark romance célèbres, sans compter Sarah Rivens autrice de la trilogie Captive, très peu d’auteurs français sont mis en avant malgré le fait qu’ils sont présents, comme Justine Pottier autrice des livres nous interdire d’aimer. La dark romance a été rendue célèbre en France plus par les traductions des romans anglais et américains que par des romans français. Les autrices les plus connus en France sont notamment Penelope Douglas ou encore L. J. Shen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire du sous-genre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Explosion via les réseaux sociaux, l'autoédition puis dans l'édition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les différentes plateformes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de la fin des années 2010, le genre devient très populaire grâce au vecteur des réseaux sociaux, et notamment sur wattpad, la communauté Booktok sur TikTok et Bookstagram sur Instagram .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire du sous-genre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Explosion via les réseaux sociaux, l'autoédition puis dans l'édition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>L'auto-édition et l'édition</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux auteurs et autrices, lorsque leur publication numérique rencontre du succès, passent par l'auto-édition. Puis, revendent parfois leurs droits à des maisons d'éditions.
+Le succès commercial de ce sous-genre engendre indirectement une hausse des lectures en anglais dans le texte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire du sous-genre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Explosion via les réseaux sociaux, l'autoédition puis dans l'édition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Le phénomène Captive de Sarah Rivens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écrivaine algérienne Sarah Rivens, connue sous le pseudonyme de theblurredgirl sur les réseaux sociaux, et en particulier sur Wattpad, connaît un énorme succès avec sa trilogie saga Captive, issue du genre de la dark romance. Elle devient l'Algérienne la plus lue de l’histoire et demeure plusieurs mois en tête des ventes de livres en France.
+Entre fin 2020 et début 2021, en pleine pandémie de Covid-19, un buzz important se crée sur les réseaux sociaux, en particulier sur TikTok avec le hashtag #captivewattpad. La saga attire rapidement plus de 9 millions de lecteurs sur Wattpad. La maison d'édition HLAB (Hachette Livre) remarque ce succès et signe un contrat d'édition avec Sarah Rivens pour produire les tomes suivants.
+Traduite en dix langues, la série connaît un grand succès commercial, avec une forte croissance des ventes. La sortie en version papier du premier tome est prévue pour fin août 2022, avec un tirage important de 10 000 exemplaires. Dès la première journée de vente, le roman est en rupture de stock. En avril 2023, la trilogie Captive s'est déjà vendue à plus de 350 000 exemplaires en version papier et à 50 000 exemplaires en version numérique. Les ventes continuent à un rythme de plus de 5 000 exemplaires par semaine. Fin mai 2023, elle est en tête des ventes de livres depuis trente-sept semaines, devant Louis-Ferdinand Céline et Stephen King. Plus d'un demi-million d'exemplaires ont été imprimés et sont disponibles en magasin. En revanche, en Algérie, le grossiste chargé d'importer la trilogie n'a toujours pas été homologué par les autorités.
+Cette histoire d'amour violente passionne en particulier de jeunes lectrices utilisatrices des réseaux sociaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification et thématiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-genre de la littérature sentimentale, la dark romance entre dans la catégorie des romances « interdites » mettant en scène des relations parfois condamnées par la morale ou par la loi.
+Ce mouvement connaît tout un spectre d'œuvres pouvant se différencier par leurs contenus légers aux contenus les plus gores. Il existe l'exemple de la série de livres Twisted  de Ana Huang qui prend un aspect plus comique. Au contraire d'autres œuvres, tel Hunting Adeline de H. D. Carlton , sont jugés plus sombres en parlant de groupes mafieux, de torture et de meurtres. Le genre n'est pas à confondre avec le romantisme noir. Ce genre connaît de nombreux détracteurs au sein du monde de la romance (des autrices aux lectrices) et beaucoup considèrent qu'il usurpe le terme romance. En effet, plusieurs romans de dark romance sont dénués notamment de fin heureuse, qui est pourtant un élément fondamental du genre.
+Dans le prolongement de la romance New Adult, la dark romance met en scène des adultes de tous âges, mais principalement des jeunes adultes, effectuant leurs études ou débutant dans la vie active. Les critères communs retrouvés dans les récits de Dark romance sont, le personnage du héros masculin souvent toxique et incarnant l'archétype du mâle alpha, ainsi que le trope enemies to lovers aussi populaire dans les autres types de romance.
+Les thématiques traitées sont toutefois différentes, portant sur des aspects plus sombres, notamment la vengeance, le pardon, et les traumatismes psychologiques issus d'enfances difficiles, ce qui rapproche ce genre du drame psychologique,. Dans ce genre littéraire à la frontière entre amour, désir et violence, l'auteur joue avec les limites de la morale et le franchissement de l'interdit. Le récit se déroule bien souvent sous forme de huis clos où se déroulent l’intrigue et la naissance de sentiments entre les deux protagonistes.
+Dans la Dark Romantasy, dont les thèmes sont analogues à la Dark Romance contemporaine tout en leur offrant la liberté d´une société parfois dépourvue de la même morale que le monde contemporain, le genre fantasy se mêle à la Dark Romance. Les univers varient, allant du monde vampire aux univers oniriques, offrant une liberté scénaristique totale.
+Les auteurs de Dark romance avertissent souvent leur lecteurs en début de livre par des trigger warning, afin de les prévenir sur les sujets lourds et polémiques que pourrait comporter leur fiction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Réactions et controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est questionné et génère des polémiques[23], et interroge de nombreux médias à partir de 2023[24],[25],[26],[27],[28], face au succès commercial qu'il rencontre, auprès d'un public féminin et jeune[29],[30].
-Critiques
-De nombreux articles voient dans le succès de ce sous-genre un recul de l'égalité hommes femmes[31], et lui reprochent de banaliser les relations toxiques[29], à l'instar de Elsa Mittelette[7]. D'autre l'accusent de « Une manière de "glamouriser" le viol? »[32]. Zoé Grandjacques dans Madame Figaro estime que « ce genre littéraire érotise sans complexe la maltraitance, le kidnapping, la torture, ou encore le viol »[33]. Julie Rambal argumente de la même manière dans Le Temps[34]. Marianne Meunier, dans La Croix, « des histoires d’amour malsaines plébiscitées par de jeunes lectrices »[35]. Dans L'Humanité, Mathieu te Morsche décrit le succès énorme de ce genre auprès de femmes et filles très jeunes et évoque un  « Syndrome de Stockholm »[9] Camille Emmanuelle, dans Marianne, questionne : « Rendre sexy des hommes dangereux, n’est-ce pas problématique ? »[36] La même autrice, dans Ouest-France, parle de culture du viol[37],[31].
-Positions plus nuancées
-Lucie Ronfaut relativise et tempère ces critiques. Elle estime notamment que le débat est plus ancien, et caricature souvent la représentation du désir féminin. Elle écrit ainsi : « Pour autant, la frontière est fine entre les remarques constructives et le mépris pour des pratiques qui ne nous sont pas destinées, dont on entend soudainement parler à cause de leur récupération commerciale »[38].
-Dans son blog, Roni Loren émet la position suivante : « Les frontières de la morale sont floues. Ce sont des personnages avec lesquels vous ne voudriez pas avoir d’ennuis dans la vraie vie, mais c’est ce qui rend la lecture de leurs aventures si intéressante[39]. »  
-Serge Hefez estime quant à lui que « La dark romance propose un exutoire à la complexité de la sexualité. »[40]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est questionné et génère des polémiques, et interroge de nombreux médias à partir de 2023 face au succès commercial qu'il rencontre, auprès d'un public féminin et jeune,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Réactions et controverses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux articles voient dans le succès de ce sous-genre un recul de l'égalité hommes femmes, et lui reprochent de banaliser les relations toxiques, à l'instar de Elsa Mittelette. D'autre l'accusent de « Une manière de "glamouriser" le viol? ». Zoé Grandjacques dans Madame Figaro estime que « ce genre littéraire érotise sans complexe la maltraitance, le kidnapping, la torture, ou encore le viol ». Julie Rambal argumente de la même manière dans Le Temps. Marianne Meunier, dans La Croix, « des histoires d’amour malsaines plébiscitées par de jeunes lectrices ». Dans L'Humanité, Mathieu te Morsche décrit le succès énorme de ce genre auprès de femmes et filles très jeunes et évoque un  « Syndrome de Stockholm » Camille Emmanuelle, dans Marianne, questionne : « Rendre sexy des hommes dangereux, n’est-ce pas problématique ? » La même autrice, dans Ouest-France, parle de culture du viol,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dark_romance</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dark_romance</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Réactions et controverses</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Positions plus nuancées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucie Ronfaut relativise et tempère ces critiques. Elle estime notamment que le débat est plus ancien, et caricature souvent la représentation du désir féminin. Elle écrit ainsi : « Pour autant, la frontière est fine entre les remarques constructives et le mépris pour des pratiques qui ne nous sont pas destinées, dont on entend soudainement parler à cause de leur récupération commerciale ».
+Dans son blog, Roni Loren émet la position suivante : « Les frontières de la morale sont floues. Ce sont des personnages avec lesquels vous ne voudriez pas avoir d’ennuis dans la vraie vie, mais c’est ce qui rend la lecture de leurs aventures si intéressante. »  
+Serge Hefez estime quant à lui que « La dark romance propose un exutoire à la complexité de la sexualité. »
 Magali Bigey, chercheuse et maître de conférences en Sciences de l'Information et de la Communication déclare : « Le discours ambiant, fait d'injonctions paradoxales sur ce que doit et peut être une femme et un homme, pourrait amener à chercher l'évasion dans la dark romance. 
-Cette position a été remise en question pour son caractère masculiniste et tres flou. »[41]
+Cette position a été remise en question pour son caractère masculiniste et tres flou. »
 </t>
         </is>
       </c>
